--- a/biology/Zoologie/Ray_S._Bassler/Ray_S._Bassler.xlsx
+++ b/biology/Zoologie/Ray_S._Bassler/Ray_S._Bassler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray Smith Bassler (né le 22 juillet 1878, décédé le 3 octobre 1961) est un géologue et un paléontologue américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1905 à 1931, il a travaillé en France avec Ferdinand Canu sur les animaux du Tertiaire des côtes de l'Atlantique et du Golfe du Mexique.
 En 1925, Ray S. Bassler a décrit le groupe des Polygnathacea parmi les conodontes ozarkodinides.
@@ -546,39 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1900
-(en) Nickles J.M. &amp; Bassler R.S., 1900. A synopsis of American fossil Bryozoa, including bibliography and synonymy. Govt. Print. Off., 663 pages.
-1904
-(en) Ulrich E.O. &amp; Bassler R.S., 1904. Systematic paleontology of the Miocene deposits of Maryland. Maryland Geological Survey Miocene Reports.
-(en) Ulrich E.O. &amp; Bassler R.S., 1904. Ostracoda, Miocene. The Johns Hopkins Press, Baltimore.
-1919
-(en) Canu F. &amp; Bassler R.S., 1919. Fossil Bryozoa from the West Indies. Publications of the Carnegie Institution.
-1923
-(en) Ulrich E.O. &amp; Bassler R.S., 1923. Paleozoic Ostracoda: their morphology, classification, and occurrence. Maryland Geological Survey, Silurian.
-1925
-(en) Bassler R.S., 1925. Classification and stratigraphic use of the conodonts. Geological Society of America, Bulletin, volume 36, issue 11, pages 218-220.
-Canu F. &amp; Bassler R.S., 1925. Contribution à l'étude des Bryozoaires d'Autriche et de Hongrie. Bulletin de la Société Géologique de France.
-(en) Bassler R.S., 1925. Geological fieldwork in Tennessee. Smithsonian Miscellaneous Collection.
-Canu F. &amp; Bassler R.S., 1925. Les Bryozoaires du Maroc et de Mauritanie. Mémoires de la Société des Sciences naturelles du Maroc, volume 10, pages 1–79.
-1926
-(en) Ulrich E.O. &amp; Bassler R.S., 1926. A classification of the toothlike fossils, conodonts, with descriptions of American Devonian and Mississippian species. Proc. U.S. Nat. Mus.
-1927
-(en) Canu F. &amp; Bassler R.S., 1927. Classification of the cheilostomatous Bryozoa. Proceedings of the United States National …
-1928
-Canu F. &amp; Bassler R.S., 1928. Les Bryozoaires du Maroc et de Mauritanie, 2ème Mémoire. Mémoires de la Société des Sciences naturelles du Maroc. 18: 1–85.
-Canu F. &amp; Bassler R.S., 1928. Bryozoaires du Brésil. Bulletin de la Société des Sciences de Seine-et-Oise. 9: 58–110.
-1929
-(en) Bassler R.S., 1929. The Permian Bryozoa of Timor. Palaeontologie von Timor, XVI Lieferung.
-1930
-(en) Canu F. &amp; Bassler R.S., 1930. The bryozoan fauna of the Galapagos Islands. Proceedings of the United States National …
-Canu F. &amp; Bassler R.S. 1930. Bryozoaires marins de Tunisie. Annales de la Station océanographique de Salambô. 5: 1–91.
-1936
-(en) Bassler R.S., 1936. Nomenclatorial notes on fossil and recent Bryozoa. Journal of the Washington Academy of Sciences.
-(en) Bassler R.S., 1936. New species of American Edrioasteroidea (with seven plates). Smithsonian Miscellaneous Collections.
-1943
-(en) Bassler R.S. &amp; Moodey M.W., 1943. Bibliographic and Faunal Index of Paleozoic Pelmatozoan Echinoderms. Geological Society of America, 734 pages.
-1950
-(en) Bassler R.S., 1950. Faunal lists and descriptions of Paleozoic corals.</t>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Nickles J.M. &amp; Bassler R.S., 1900. A synopsis of American fossil Bryozoa, including bibliography and synonymy. Govt. Print. Off., 663 pages.</t>
         </is>
       </c>
     </row>
@@ -603,10 +591,451 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Ulrich E.O. &amp; Bassler R.S., 1904. Systematic paleontology of the Miocene deposits of Maryland. Maryland Geological Survey Miocene Reports.
+(en) Ulrich E.O. &amp; Bassler R.S., 1904. Ostracoda, Miocene. The Johns Hopkins Press, Baltimore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Canu F. &amp; Bassler R.S., 1919. Fossil Bryozoa from the West Indies. Publications of the Carnegie Institution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Ulrich E.O. &amp; Bassler R.S., 1923. Paleozoic Ostracoda: their morphology, classification, and occurrence. Maryland Geological Survey, Silurian.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Bassler R.S., 1925. Classification and stratigraphic use of the conodonts. Geological Society of America, Bulletin, volume 36, issue 11, pages 218-220.
+Canu F. &amp; Bassler R.S., 1925. Contribution à l'étude des Bryozoaires d'Autriche et de Hongrie. Bulletin de la Société Géologique de France.
+(en) Bassler R.S., 1925. Geological fieldwork in Tennessee. Smithsonian Miscellaneous Collection.
+Canu F. &amp; Bassler R.S., 1925. Les Bryozoaires du Maroc et de Mauritanie. Mémoires de la Société des Sciences naturelles du Maroc, volume 10, pages 1–79.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Ulrich E.O. &amp; Bassler R.S., 1926. A classification of the toothlike fossils, conodonts, with descriptions of American Devonian and Mississippian species. Proc. U.S. Nat. Mus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Canu F. &amp; Bassler R.S., 1927. Classification of the cheilostomatous Bryozoa. Proceedings of the United States National …</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Canu F. &amp; Bassler R.S., 1928. Les Bryozoaires du Maroc et de Mauritanie, 2ème Mémoire. Mémoires de la Société des Sciences naturelles du Maroc. 18: 1–85.
+Canu F. &amp; Bassler R.S., 1928. Bryozoaires du Brésil. Bulletin de la Société des Sciences de Seine-et-Oise. 9: 58–110.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) Bassler R.S., 1929. The Permian Bryozoa of Timor. Palaeontologie von Timor, XVI Lieferung.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Canu F. &amp; Bassler R.S., 1930. The bryozoan fauna of the Galapagos Islands. Proceedings of the United States National …
+Canu F. &amp; Bassler R.S. 1930. Bryozoaires marins de Tunisie. Annales de la Station océanographique de Salambô. 5: 1–91.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Bassler R.S., 1936. Nomenclatorial notes on fossil and recent Bryozoa. Journal of the Washington Academy of Sciences.
+(en) Bassler R.S., 1936. New species of American Edrioasteroidea (with seven plates). Smithsonian Miscellaneous Collections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(en) Bassler R.S. &amp; Moodey M.W., 1943. Bibliographic and Faunal Index of Paleozoic Pelmatozoan Echinoderms. Geological Society of America, 734 pages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(en) Bassler R.S., 1950. Faunal lists and descriptions of Paleozoic corals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray_S._Bassler</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'espèce du conodonte Neognathodus bassleri est un hommage à R.S. Bassler.
 </t>
